--- a/website_content.xlsx
+++ b/website_content.xlsx
@@ -397,19 +397,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>content</v>
+        <v>Content</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>불교대학문화재학과문과대학국어국문·문예창작학부영어영문학부일본학과중어중문학과사학과이과대학수학과화학과통계학과법과대학법학과사회과학대학정치외교학전공행정학전공경제학과국제통상학과미디어커뮤니케이션학전공광고홍보학과경찰사법대학경찰행정학부경영대학경영학과회계학과경영정보학과바이오시스템대학식품생명공학과의생명공학과공과대학전자전기공학부정보통신공학과화공생물공학과기계로봇에너지공학과산업시스템공학과에너지신소재공학과AI융합대학AI소프트웨어융합학부시스템반도체학부사범대학국어교육과수학교육과예술대학영화영상학과불교대학불교학부문화재학과문과대학국어국문·문예창작학부영어영문학부일본학과중어중문학과철학과사학과이과대학수학과화학과통계학과물리학과법과대학법학과사회과학대학정치외교학전공행정학전공북한학전공경제학과국제통상학과사회학전공미디어커뮤니케이션학전공식품산업관리학과광고홍보학과사회복지학과경찰사법대학경찰행정학부경영대학경영학과회계학과경영정보학과바이오시스템대학바이오환경과학과생명과학과식품생명공학과의생명공학과공과대학전자전기공학부정보통신공학과건설환경공학과화공생물공학과기계로봇에너지공학과건축공학부산업시스템공학과에너지신소재공학과AI융합대학AI소프트웨어융합학부시스템반도체학부예술대학영화영상학과불교대학불교학부문화재학과문과대학국어국문·문예창작학부영어영문학부일본학과중어중문학과철학과사학과이과대학수학과화학과통계학과물리학과법과대학법학과사회과학대학정치외교학전공행정학전공북한학전공경제학과국제통상학과사회학전공미디어커뮤니케이션학전공식품산업관리학과광고홍보학과사회복지학과경영대학경영학과회계학과경영정보학과바이오시스템대학바이오환경과학과생명과학과식품생명공학과의생명공학과공과대학전자전기공학부정보통신공학과건설환경공학과화공생물공학과기계로봇에너지공학과건축공학부산업시스템공학과에너지신소재공학과AI융합대학AI소프트웨어융합학부시스템반도체학부예술대학영화영상학과</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
   </ignoredErrors>
 </worksheet>
 </file>